--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-0.121174021478838</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.555950841667117</v>
+        <v>-1.567316833742029</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01540740030901201</v>
+        <v>0.01783453779405767</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1201628666086162</v>
+        <v>-0.1348264287426534</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1094211105352561</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.553713373486188</v>
+        <v>-1.567158644820339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02696542271672296</v>
+        <v>0.02922728819403205</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0779712840621513</v>
+        <v>-0.09585528931836972</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1015411134210348</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.636276972474894</v>
+        <v>-1.646107508896978</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03452048621864581</v>
+        <v>-0.02974176416637692</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08487178388993351</v>
+        <v>-0.1022678432185487</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09604171529702855</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.783964825597856</v>
+        <v>-1.78671699803145</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09819113369437993</v>
+        <v>-0.08683930779155936</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0894049589592795</v>
+        <v>-0.1090565876887186</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08941423065898925</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.858096404153754</v>
+        <v>-1.845974095891057</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1340173829143049</v>
+        <v>-0.1162435589965775</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08895006743322359</v>
+        <v>-0.1078697772712579</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08008823835421605</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.678976176187979</v>
+        <v>-1.665918900567229</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1569036209380169</v>
+        <v>-0.126972073327363</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09342815183332405</v>
+        <v>-0.1075124749307226</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06834955072146669</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.33040806775682</v>
+        <v>-1.330330940819876</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1668750320714567</v>
+        <v>-0.1322214270969008</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04435023563116861</v>
+        <v>-0.06394992172960477</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05483414629390761</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7943121082234582</v>
+        <v>-0.8144705711099561</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1171848224311153</v>
+        <v>-0.07709298139246551</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05899648355487151</v>
+        <v>-0.07335311196025508</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04053099932178129</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2373123877496625</v>
+        <v>-0.2775096880694395</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1375164274209563</v>
+        <v>-0.0928630789687771</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02551417708688372</v>
+        <v>0.007257129298917047</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02503397300087104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3588835568827629</v>
+        <v>0.3026139473153846</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1554759855949972</v>
+        <v>-0.1122061999504413</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09850931383720313</v>
+        <v>0.07886398118424924</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.007537891080732815</v>
       </c>
       <c r="E12" t="n">
-        <v>1.032270973242895</v>
+        <v>0.9602580244242676</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2580941622081955</v>
+        <v>-0.2053094309753769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1563450724302756</v>
+        <v>0.1429013751152464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01283273754007614</v>
       </c>
       <c r="E13" t="n">
-        <v>1.741385475618311</v>
+        <v>1.6537818674032</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4247229744273289</v>
+        <v>-0.3677308900832736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2651003495974253</v>
+        <v>0.2489524874320015</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03732721475488576</v>
       </c>
       <c r="E14" t="n">
-        <v>2.414025232895825</v>
+        <v>2.32081339455152</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6693255458774557</v>
+        <v>-0.6075893679018002</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3742538536022641</v>
+        <v>0.361496428624122</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06790236570288131</v>
       </c>
       <c r="E15" t="n">
-        <v>3.130325132559979</v>
+        <v>3.030280477210107</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9709540430827459</v>
+        <v>-0.9083749778676339</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5208454024072398</v>
+        <v>0.5081462161365858</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1064081770566242</v>
       </c>
       <c r="E16" t="n">
-        <v>3.812854451976625</v>
+        <v>3.705981701678551</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.207442545962568</v>
+        <v>-1.146317874415538</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6824389274573323</v>
+        <v>0.6688094958859896</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1524267961879213</v>
       </c>
       <c r="E17" t="n">
-        <v>4.486363067809098</v>
+        <v>4.366133191247666</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.512570087674509</v>
+        <v>-1.444796759359105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8539834013922878</v>
+        <v>0.8386776394567599</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2033742501390874</v>
       </c>
       <c r="E18" t="n">
-        <v>5.172772344359751</v>
+        <v>5.03744132834856</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.720369731039944</v>
+        <v>-1.654942478224839</v>
       </c>
       <c r="G18" t="n">
-        <v>1.011674933040676</v>
+        <v>0.9938507405110668</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2562613209078204</v>
       </c>
       <c r="E19" t="n">
-        <v>5.651477205701807</v>
+        <v>5.516073784811038</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.960926286338768</v>
+        <v>-1.891647408733839</v>
       </c>
       <c r="G19" t="n">
-        <v>1.176959532930218</v>
+        <v>1.162143290941415</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3081541791561055</v>
       </c>
       <c r="E20" t="n">
-        <v>6.096046314360216</v>
+        <v>5.953488976563134</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.109706508731912</v>
+        <v>-2.042979116122612</v>
       </c>
       <c r="G20" t="n">
-        <v>1.304078891185583</v>
+        <v>1.290529734589427</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3575556045345775</v>
       </c>
       <c r="E21" t="n">
-        <v>6.38066359991205</v>
+        <v>6.245752847006247</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.303295120460684</v>
+        <v>-2.238062259007059</v>
       </c>
       <c r="G21" t="n">
-        <v>1.417106056247943</v>
+        <v>1.406808823156394</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4033949230627536</v>
       </c>
       <c r="E22" t="n">
-        <v>6.713156251057365</v>
+        <v>6.572764763571192</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.39543111673558</v>
+        <v>-2.337762204169366</v>
       </c>
       <c r="G22" t="n">
-        <v>1.509131084174788</v>
+        <v>1.502087348606967</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.44402123812719</v>
       </c>
       <c r="E23" t="n">
-        <v>6.834555623825922</v>
+        <v>6.702851147870208</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.481295433821654</v>
+        <v>-2.428040070871566</v>
       </c>
       <c r="G23" t="n">
-        <v>1.607993651164563</v>
+        <v>1.602851330695273</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4779059106984695</v>
       </c>
       <c r="E24" t="n">
-        <v>6.959578388611715</v>
+        <v>6.834291188613544</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.527952508615249</v>
+        <v>-2.479334993006074</v>
       </c>
       <c r="G24" t="n">
-        <v>1.611074006584948</v>
+        <v>1.61241979293366</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5038860897210907</v>
       </c>
       <c r="E25" t="n">
-        <v>7.039252088493713</v>
+        <v>6.919898940582846</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.538788843255843</v>
+        <v>-2.491781549207759</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655020620451663</v>
+        <v>1.660126738481163</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5216661535012616</v>
       </c>
       <c r="E26" t="n">
-        <v>7.016269835303602</v>
+        <v>6.904963073140824</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.571525292940655</v>
+        <v>-2.522585103411613</v>
       </c>
       <c r="G26" t="n">
-        <v>1.666594383050587</v>
+        <v>1.679501339845253</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5310981164020907</v>
       </c>
       <c r="E27" t="n">
-        <v>6.939073641518531</v>
+        <v>6.83830336335374</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.461160581221975</v>
+        <v>-2.424151456632393</v>
       </c>
       <c r="G27" t="n">
-        <v>1.630901925455973</v>
+        <v>1.645094855872741</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5331331050009104</v>
       </c>
       <c r="E28" t="n">
-        <v>6.795746608371132</v>
+        <v>6.708416879483128</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.375272653849082</v>
+        <v>-2.348988895552043</v>
       </c>
       <c r="G28" t="n">
-        <v>1.562899577358419</v>
+        <v>1.584218092337316</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.5281836696323232</v>
       </c>
       <c r="E29" t="n">
-        <v>6.623681134107027</v>
+        <v>6.544149095945945</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.292930204546919</v>
+        <v>-2.270679870248212</v>
       </c>
       <c r="G29" t="n">
-        <v>1.506412753152301</v>
+        <v>1.530337843796072</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5167128863161508</v>
       </c>
       <c r="E30" t="n">
-        <v>6.42124023884006</v>
+        <v>6.352076264630987</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.241160715647339</v>
+        <v>-2.227211758194372</v>
       </c>
       <c r="G30" t="n">
-        <v>1.439487034133718</v>
+        <v>1.464314037733993</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4999184948216638</v>
       </c>
       <c r="E31" t="n">
-        <v>6.123550724485825</v>
+        <v>6.069379282407141</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.03070648903383</v>
+        <v>-2.039221932480067</v>
       </c>
       <c r="G31" t="n">
-        <v>1.359389923108089</v>
+        <v>1.386684988690565</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.4786056493444706</v>
       </c>
       <c r="E32" t="n">
-        <v>5.847519713240687</v>
+        <v>5.804983420506657</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.89602869095798</v>
+        <v>-1.914170835350091</v>
       </c>
       <c r="G32" t="n">
-        <v>1.266571589544109</v>
+        <v>1.299223042196371</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4531933507210915</v>
       </c>
       <c r="E33" t="n">
-        <v>5.472116152810473</v>
+        <v>5.443519373414683</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.821232876332892</v>
+        <v>-1.846081916200866</v>
       </c>
       <c r="G33" t="n">
-        <v>1.185141284322739</v>
+        <v>1.219957013266789</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4246626645189995</v>
       </c>
       <c r="E34" t="n">
-        <v>5.14749044923342</v>
+        <v>5.128998872596378</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.740333015555401</v>
+        <v>-1.769169045857629</v>
       </c>
       <c r="G34" t="n">
-        <v>1.063047769121688</v>
+        <v>1.102144830075676</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.394651277794342</v>
       </c>
       <c r="E35" t="n">
-        <v>4.727609830492612</v>
+        <v>4.726885781696813</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.686814004402496</v>
+        <v>-1.717933936449731</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9908774183909299</v>
+        <v>1.026442380436719</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3644348330902504</v>
       </c>
       <c r="E36" t="n">
-        <v>4.252363089160053</v>
+        <v>4.264176102665414</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.596636874924058</v>
+        <v>-1.633874232286229</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9191666812435918</v>
+        <v>0.9590413076435021</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3355072950967752</v>
       </c>
       <c r="E37" t="n">
-        <v>3.863887299927436</v>
+        <v>3.884708424864002</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.562490104106561</v>
+        <v>-1.597589156492445</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8429621195049403</v>
+        <v>0.8805434000451156</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.309340365017904</v>
       </c>
       <c r="E38" t="n">
-        <v>3.503904404828605</v>
+        <v>3.532704232691044</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.470220316206354</v>
+        <v>-1.510312944254564</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7441483471079258</v>
+        <v>0.7853561677035777</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2864716104291756</v>
       </c>
       <c r="E39" t="n">
-        <v>3.061915113510008</v>
+        <v>3.103950868163464</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.443116493947117</v>
+        <v>-1.482440213654572</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6850470771413275</v>
+        <v>0.7215832089849591</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2673025654022265</v>
       </c>
       <c r="E40" t="n">
-        <v>2.636665515546444</v>
+        <v>2.691485453503104</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.436894396360615</v>
+        <v>-1.47215242467775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.612014163932097</v>
+        <v>0.6492853627053758</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2525589292511075</v>
       </c>
       <c r="E41" t="n">
-        <v>2.288311473715782</v>
+        <v>2.345449941838119</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.399306819743954</v>
+        <v>-1.436734633419803</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5585903809360303</v>
+        <v>0.5958411174607323</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2420953736680828</v>
       </c>
       <c r="E42" t="n">
-        <v>1.909668581933931</v>
+        <v>1.973938930694881</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.367889398082793</v>
+        <v>-1.402214033060997</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4954533259424171</v>
+        <v>0.5320760288377202</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2350654129873393</v>
       </c>
       <c r="E43" t="n">
-        <v>1.673176931015867</v>
+        <v>1.732531618060994</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.350256448876422</v>
+        <v>-1.379143634800093</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4190976583681207</v>
+        <v>0.4545917895534512</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2306385615974381</v>
       </c>
       <c r="E44" t="n">
-        <v>1.468208161040091</v>
+        <v>1.518960833587311</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.349658321610328</v>
+        <v>-1.37388877196363</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3566610418834863</v>
+        <v>0.3887694579388991</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2275978751814673</v>
       </c>
       <c r="E45" t="n">
-        <v>1.244618744859328</v>
+        <v>1.2961363906995</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.278173456206896</v>
+        <v>-1.301949802043704</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2939017514789853</v>
+        <v>0.3270757784795186</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2247173491785766</v>
       </c>
       <c r="E46" t="n">
-        <v>1.020286391653312</v>
+        <v>1.071317665585001</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.219084778393268</v>
+        <v>-1.242528219185921</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2626511758446815</v>
+        <v>0.2897479150178728</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2210908551454297</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8946607775440614</v>
+        <v>0.9410046225325176</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.163103214325088</v>
+        <v>-1.185614835797931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.184143824131567</v>
+        <v>0.2133308606978457</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2162470649447385</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7414504783340163</v>
+        <v>0.779609423891709</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.089334447176649</v>
+        <v>-1.110264966442145</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1335013329228387</v>
+        <v>0.1561152656385657</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2100043083361723</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5735703209134489</v>
+        <v>0.6123887804829665</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.035252724187879</v>
+        <v>-1.053383063436581</v>
       </c>
       <c r="G49" t="n">
-        <v>0.085207278243091</v>
+        <v>0.1086491450166222</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2022655364750674</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4978363908920663</v>
+        <v>0.5320917690289332</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9836603124394457</v>
+        <v>-0.9982695709137981</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07825640980342717</v>
+        <v>0.09657169629888197</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1937986119485931</v>
       </c>
       <c r="E51" t="n">
-        <v>0.379692089666358</v>
+        <v>0.4125796451868146</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9664751716730848</v>
+        <v>-0.9785573424481889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07622907317519188</v>
+        <v>0.08858827131564488</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1857366072933843</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2576930156125843</v>
+        <v>0.2831574969569868</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9759625719267248</v>
+        <v>-0.9797622540855446</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01439688003313697</v>
+        <v>0.03013864526526515</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1785549037936783</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1862073631995922</v>
+        <v>0.2120653493243199</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9291976768233207</v>
+        <v>-0.9414128522141746</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02714486089655124</v>
+        <v>0.0362033409396367</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1729402708125069</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1043080002800749</v>
+        <v>0.1209548265069509</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9060572347115186</v>
+        <v>-0.9142618093812984</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.009477841998751867</v>
+        <v>-0.001017489221760669</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1692964543447187</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07000382755044766</v>
+        <v>0.07497615395463654</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9247825531880722</v>
+        <v>-0.9274552376560408</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02339689308841385</v>
+        <v>-0.0171039646414537</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1677137550879893</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.00264502499318558</v>
+        <v>0.001678805533027409</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9409855060227414</v>
+        <v>-0.939535047402463</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05322455543706188</v>
+        <v>-0.04838444663906227</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1679774089874526</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.094443394166563</v>
+        <v>-0.09169673079989329</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9772154911472801</v>
+        <v>-0.9704259596675495</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08936403446212568</v>
+        <v>-0.08383293126987505</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1702115713329334</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1278047294425311</v>
+        <v>-0.1283760983835632</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9810269784495097</v>
+        <v>-0.9712963922416289</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1132906991250174</v>
+        <v>-0.1093367630923101</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1740945343900526</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.196274561219111</v>
+        <v>-0.1977919156520448</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9845252359466005</v>
+        <v>-0.9755997605192649</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1216125382193342</v>
+        <v>-0.1186533822712889</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1790239404054089</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2663388743655685</v>
+        <v>-0.2708437170907311</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.031326333489794</v>
+        <v>-1.015742757179357</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1278629681500192</v>
+        <v>-0.1260937706576772</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1845490864264092</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3348732409261218</v>
+        <v>-0.3427417625135039</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.011291431104319</v>
+        <v>-0.9953607835776345</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1648130670225528</v>
+        <v>-0.1619782585850903</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1899536031456005</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4647014860892451</v>
+        <v>-0.469799734023138</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.057019834616346</v>
+        <v>-1.031418413608391</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1880361451382232</v>
+        <v>-0.1860890834851743</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1946184332867408</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5241600583963786</v>
+        <v>-0.5282902845706716</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.096759095371825</v>
+        <v>-1.067182489073024</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2229714995354919</v>
+        <v>-0.2200013254535975</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1975763287324281</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6642493342112611</v>
+        <v>-0.6655998426173371</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.140889869475732</v>
+        <v>-1.108823951936595</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2757263244050058</v>
+        <v>-0.2703589192013705</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1985248080373788</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8291475124065244</v>
+        <v>-0.8226318602539002</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.213254611567971</v>
+        <v>-1.174399949558663</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3422805749109628</v>
+        <v>-0.3337399471587852</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1972390706265702</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9433205633891911</v>
+        <v>-0.9341762993039947</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.242597476027258</v>
+        <v>-1.204377143723835</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3728322860554091</v>
+        <v>-0.3641137941425246</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1941488907868335</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.041577133017265</v>
+        <v>-1.024950769038966</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.310514827092261</v>
+        <v>-1.266874359944639</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4439606361278659</v>
+        <v>-0.4330699978275865</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1901506422025888</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.16028572009796</v>
+        <v>-1.133005607697137</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.384013649961397</v>
+        <v>-1.332240226014014</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4527011643084486</v>
+        <v>-0.4418136740464118</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1866664292716654</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.340529010706784</v>
+        <v>-1.298780514542965</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.444537833213651</v>
+        <v>-1.390947204190726</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4893616436626629</v>
+        <v>-0.4759352605579681</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1850018727260071</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.403495284625736</v>
+        <v>-1.358697126414397</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.542183683422661</v>
+        <v>-1.484521066932931</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5335837108756057</v>
+        <v>-0.5159940471950706</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1860662894977853</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.469277478752695</v>
+        <v>-1.418402032714014</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.591388308164081</v>
+        <v>-1.529381398899561</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5980618301605671</v>
+        <v>-0.5754825258655087</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1911421306017992</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.547469239631988</v>
+        <v>-1.489962451035268</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.634773784214052</v>
+        <v>-1.574161455891005</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.597233896102763</v>
+        <v>-0.5723234694890583</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2002565126841863</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.622719945783131</v>
+        <v>-1.553186077080552</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.637534613752814</v>
+        <v>-1.580045139366427</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6317033408401268</v>
+        <v>-0.602583987096064</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2129757460184404</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.68056278746225</v>
+        <v>-1.604411742373723</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.667321351604308</v>
+        <v>-1.610167143290758</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6355345033813726</v>
+        <v>-0.6077247335462321</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2290463943183813</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.690118657547666</v>
+        <v>-1.606918367824394</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.651534726827222</v>
+        <v>-1.598794855139361</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6562123925778998</v>
+        <v>-0.6266302772121747</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.247386449131221</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.600859968226507</v>
+        <v>-1.517648660369386</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.727337126680382</v>
+        <v>-1.666129819129483</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6399984216093814</v>
+        <v>-0.6092814384571985</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2667855969143766</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.531607848946641</v>
+        <v>-1.446951591536166</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.733871667062461</v>
+        <v>-1.67272181120949</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6139358129988846</v>
+        <v>-0.5852178341307536</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.28652314650473</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.359282661527521</v>
+        <v>-1.277843699200984</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.67177739973671</v>
+        <v>-1.617243933260126</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5726697536957445</v>
+        <v>-0.5441186208544713</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3054265478918932</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.232445839704429</v>
+        <v>-1.151789164881179</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.636304517809517</v>
+        <v>-1.589021770415205</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.588779839402257</v>
+        <v>-0.5560512598130518</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3226171640498697</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.043672939477277</v>
+        <v>-0.9670953352068773</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.592999316734732</v>
+        <v>-1.551587660662872</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.576211296718671</v>
+        <v>-0.541913420065529</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3370688282024357</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8974331839459121</v>
+        <v>-0.8207288711362477</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.547684880251606</v>
+        <v>-1.513313024699763</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5395114668864242</v>
+        <v>-0.5071952803069998</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3484247882135018</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6685527024888972</v>
+        <v>-0.6013625482579347</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.533790226458325</v>
+        <v>-1.505205252205943</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4845545892662106</v>
+        <v>-0.4560868794383664</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3561673315104938</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4537856634830248</v>
+        <v>-0.3887440453526378</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.416573809504623</v>
+        <v>-1.400227620929915</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3980181660153415</v>
+        <v>-0.3727315488316459</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3602295366965992</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2531548902055539</v>
+        <v>-0.1939796413402546</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.369904929567618</v>
+        <v>-1.357637024536201</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3741702023085147</v>
+        <v>-0.3488426606276653</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3612785594345759</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05627343047502131</v>
+        <v>0.00060532449230034</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.238100503397702</v>
+        <v>-1.231615544617943</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3534325003853782</v>
+        <v>-0.3241636148247919</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3600090248155147</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2169054581223196</v>
+        <v>0.2663501207797381</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.121579015886055</v>
+        <v>-1.121458603423275</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2912461529410306</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3568889082748315</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4579365801862152</v>
+        <v>0.4999377064190027</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9796205923646275</v>
+        <v>-0.988150201982956</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2218476498828833</v>
+        <v>-0.1971245315446134</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.351905858808029</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6271829862040716</v>
+        <v>0.6678304559925405</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8263559894948976</v>
+        <v>-0.8386270425645578</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1998523066818275</v>
+        <v>-0.1751276143244362</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3449285050073784</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8177557772964311</v>
+        <v>0.8500735378949769</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7146572965709156</v>
+        <v>-0.7268024281108717</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1345761597023666</v>
+        <v>-0.1137204063451325</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3350053669155765</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9602832087302083</v>
+        <v>0.9880473320108312</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5134897827730812</v>
+        <v>-0.5328140155252897</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1177546173530262</v>
+        <v>-0.09557353989565688</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3217704307727519</v>
       </c>
       <c r="E91" t="n">
-        <v>1.085996967910252</v>
+        <v>1.110680735770489</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3158653860172946</v>
+        <v>-0.3380149830922379</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1402347584434426</v>
+        <v>-0.118936705713123</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3054927889178021</v>
       </c>
       <c r="E92" t="n">
-        <v>1.152025496029694</v>
+        <v>1.171090015626888</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1790925684909927</v>
+        <v>-0.1981586621073079</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1013832444723777</v>
+        <v>-0.08102330713835333</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2859309726658043</v>
       </c>
       <c r="E93" t="n">
-        <v>1.179093902858702</v>
+        <v>1.196268025491214</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07847654420008882</v>
+        <v>-0.09498643076341173</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09683905126918264</v>
+        <v>-0.07827979180992622</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2637476451988445</v>
       </c>
       <c r="E94" t="n">
-        <v>1.173770570190463</v>
+        <v>1.18503267700337</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07959904811389666</v>
+        <v>0.05805072634329024</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0557823365091755</v>
+        <v>-0.03981706056182262</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2402008595998657</v>
       </c>
       <c r="E95" t="n">
-        <v>1.192095300800646</v>
+        <v>1.196811062088063</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1638547176580012</v>
+        <v>0.142375652728732</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08958124910086517</v>
+        <v>-0.07582432198069716</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2155323224415189</v>
       </c>
       <c r="E96" t="n">
-        <v>1.110901098447471</v>
+        <v>1.115287889738536</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2514961023320235</v>
+        <v>0.2282116374706224</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.11069199355575</v>
+        <v>-0.09965654549631087</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1910013096110638</v>
       </c>
       <c r="E97" t="n">
-        <v>1.06467215685487</v>
+        <v>1.066768750324443</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3021590557893287</v>
+        <v>0.2772439071182601</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07742982148442386</v>
+        <v>-0.06971083171356529</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1636213044484215</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9401751144555921</v>
+        <v>0.9457266798964197</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2801007518234209</v>
+        <v>0.2582643845536164</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1332728718699297</v>
+        <v>-0.1251383410510477</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1340342373954425</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9141219499598231</v>
+        <v>0.9147059110538257</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2513512925728638</v>
+        <v>0.2341567076917751</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1181780284966561</v>
+        <v>-0.1116017766078618</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.09607828036836283</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8532262981949421</v>
+        <v>0.8556030670681062</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2461554554534502</v>
+        <v>0.2292992846834412</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1178065599840291</v>
+        <v>-0.1122392543519886</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05390178048466109</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7966182745164841</v>
+        <v>0.7945720496587932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2143649912605402</v>
+        <v>0.2008724993527508</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1022646951803061</v>
+        <v>-0.09925831865862179</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.001570845314001508</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7883814324547177</v>
+        <v>0.7852538564606932</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1785560562509496</v>
+        <v>0.170386897011399</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08406746011894886</v>
+        <v>-0.08276417228651189</v>
       </c>
     </row>
   </sheetData>
